--- a/theo/outputs/CL/correlations.xlsx
+++ b/theo/outputs/CL/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.634285302783325</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.09357940903373592</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.06340992609472827</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4525877367138185</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.7969046907036198</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.0579015764447962</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05796983846522703</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5514650582558894</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5545866212351098</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.0579015764447962</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05796983846522703</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5514650582558894</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5545866212351098</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.001885278883751989</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.06575789896192313</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.05005357453872034</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>-0.634285302783325</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1204684740995565</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.2315612658475629</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.911011729190757</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.7189902714574471</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.0475913921779467</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.04778677931143594</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.1161627004774624</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.1185192960889257</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08124595625893839</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.08099479781825271</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.09083782107240726</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.09314596255882855</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.159868265430301</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>0.2013701470298157</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.1115384360956712</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.09357940903373592</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.1204684740995565</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.6833331041287013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>0.08211623583422378</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.03296907412812049</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.02346707640139893</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.02250409235985169</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.05305058894692625</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.05062124699885178</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.01161922879772737</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.01331089450133421</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.05776762142521021</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.05526253692265087</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.5000804367713561</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.3645514828994326</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9590145440540484</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>0.06340992609472827</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.2315612658475629</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>0.6833331041287013</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2383212004928257</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1571081215987928</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>-0.0548209270088391</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>-0.05373478295460131</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>-0.04030653785709233</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>-0.0414748377258838</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.04528165748970605</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.04388860966008939</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>-0.03639100764392484</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>-0.0371857852817325</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.2905355672945565</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.2539592226835051</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.5941982672915481</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>0.4525877367138185</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.911011729190757</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>0.08211623583422378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2383212004928257</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.6592284751583513</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.03503413062822603</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.03558624351977541</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>-0.09979505696330661</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>-0.1046600890537313</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.05294964843800932</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.05235251313869308</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>-0.08506874450592274</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>-0.0898192415804115</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1750525645506494</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.208047678090454</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1382507373075899</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.7969046907036198</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.7189902714574471</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>-0.03296907412812049</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1571081215987928</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.6592284751583513</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.07674903674369564</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.07629227096521893</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.6067951360975553</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6047480197272064</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.09699766586034708</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.09730465667095828</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.6101927773627525</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.6083444281670757</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1431371519043525</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.2256236950153916</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1187524176559651</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.0579015764447962</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.0475913921779467</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>-0.02346707640139893</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>-0.0548209270088391</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.03503413062822603</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.07674903674369564</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995634688301707</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1705493715488543</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1708325693084133</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.009222860565437287</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.009025992491321976</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1684370369334085</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1686055665022657</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.0320072876046257</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.02088771776191221</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.008840538045594997</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05796983846522703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.04778677931143594</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>-0.02250409235985169</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>-0.05373478295460131</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.03558624351977541</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.07629227096521893</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995634688301707</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1704453682455054</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1708226518990655</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.009740574283264176</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.00960592602520797</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1682703250388862</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1685281246278155</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.03208964645263503</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.020000059662665</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.007430533079990199</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5514650582558894</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.1161627004774624</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.05305058894692625</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>-0.04030653785709233</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>-0.09979505696330661</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.6067951360975553</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1705493715488543</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1704453682455054</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9997696494111467</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04437924495385515</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.04496134637900501</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9807169241069847</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9807413079216807</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.02171955713931294</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.092134800383755</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.04214444724245148</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5545866212351098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.1185192960889257</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.05062124699885178</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>-0.0414748377258838</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>-0.1046600890537313</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.6047480197272064</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1708325693084133</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1708226518990655</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9997696494111467</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04214213993867306</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.04269239720383566</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9803416892098801</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9808022798839685</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.01714998779999714</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.08694559575775071</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.03845263644889247</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.0579015764447962</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08124595625893839</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.01161922879772737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.04528165748970605</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.05294964843800932</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.09699766586034708</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>-0.009222860565437287</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>-0.009740574283264176</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.04437924495385515</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.04214213993867306</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995634688301707</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1705493715488543</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1708325693084133</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.07451952019726055</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.02731616982320692</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.01824854401422576</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05796983846522703</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.08099479781825271</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.01331089450133421</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.04388860966008939</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.05235251313869308</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.09730465667095828</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>-0.009025992491321976</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>-0.00960592602520797</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.04496134637900501</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.04269239720383566</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9995634688301707</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1704453682455054</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1708226518990655</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.07498416982405851</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.0286014118883023</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.01997444235068289</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.5514650582558894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.09083782107240726</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.05776762142521021</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>-0.03639100764392484</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>-0.08506874450592274</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.6101927773627525</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1684370369334085</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1682703250388862</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9807169241069847</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.9803416892098801</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1705493715488543</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1704453682455054</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9997696494111467</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.03386516859638469</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.09496338524243629</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.04833085283370882</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.5545866212351098</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.09314596255882855</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.05526253692265087</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>-0.0371857852817325</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>-0.0898192415804115</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.6083444281670757</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.1686055665022657</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1685281246278155</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.9807413079216807</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9808022798839685</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1708325693084133</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1708226518990655</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9997696494111467</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.02965040803785572</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.09009500133761422</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.04458203845471729</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>-0.001885278883751989</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.159868265430301</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.5000804367713561</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.2905355672945565</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.1750525645506494</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.1431371519043525</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.0320072876046257</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.03208964645263503</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.02171955713931294</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.01714998779999714</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.07451952019726055</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.07498416982405851</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.03386516859638469</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.02965040803785572</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.7789951297569313</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5520884176041295</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.06575789896192313</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>0.2013701470298157</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.3645514828994326</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.2539592226835051</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.208047678090454</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.2256236950153916</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.02088771776191221</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.020000059662665</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.092134800383755</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.08694559575775071</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.02731616982320692</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.0286014118883023</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.09496338524243629</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.09009500133761422</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.7789951297569313</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.4191737072405036</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>-0.05005357453872034</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.1115384360956712</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.9590145440540484</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>0.5941982672915481</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1382507373075899</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1187524176559651</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>-0.008840538045594997</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>-0.007430533079990199</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.04214444724245148</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.03845263644889247</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.01824854401422576</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.01997444235068289</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.04833085283370882</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.04458203845471729</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.5520884176041295</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.4191737072405036</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.1596920068731103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.4905004980561889</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>0.4976274389810992</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.9020219861574411</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.1484785780561071</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.003735350969711191</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.003722383590403506</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.03278936311573936</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.02540128292014521</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.003735350969711191</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.003722383590403506</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.03278936311573936</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.02540128292014521</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.02045792160719828</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.04614177884777693</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.01515684042735803</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.1596920068731103</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.06293884497854293</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.06736614799757427</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1115175880648304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8165431538881464</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05640138024756257</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05640889601030002</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3140280797418116</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3090612858402217</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05859450381016332</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05852582736489374</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2946210104947336</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2896354834237376</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.0001356758526699165</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.01426584288474452</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.02495011652151665</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.4905004980561889</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>-0.06293884497854293</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.7100925948499732</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.4970746227205678</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.01994775724959053</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.007875046492660487</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.00925790540533165</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.07168200158114711</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.06827478245457509</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.02261796491765219</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>-0.02302495600710903</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.07549407346132941</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.07196551542872649</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4516858778425433</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2808525129013629</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.7206752789418399</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>0.4976274389810992</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.06736614799757427</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>0.7100925948499732</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.5632214298091006</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.05207753512693744</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>-0.01204033115184424</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>-0.01189983091638012</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>-0.02597332325948909</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>-0.02419475923252313</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.01486390895692113</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.01436415248094443</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.02344325036999153</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.02142403475620135</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.3074504661719041</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1986019200791354</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3458329224122893</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.9020219861574411</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.1115175880648304</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>0.4970746227205678</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.5632214298091006</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.09246369610721095</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.005798877413296185</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.005597818271078254</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.03270933565802012</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.02904249741608673</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.02562385868829739</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.02519361695958046</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.02910156922841318</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.02544971923671207</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.04188967464141852</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.09584526516635961</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.06074342288677571</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.1484785780561071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8165431538881464</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>-0.01994775724959053</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.05207753512693744</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.09246369610721095</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04570550681757469</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04575040402855229</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2916642363652587</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2964159407580173</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06634785089799124</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06617511861877032</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2955451834838658</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3002778899582095</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03902923940692708</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.02221007030779636</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.01406768922614028</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.003735350969711191</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.05640138024756257</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.007875046492660487</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>-0.01204033115184424</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>0.005798877413296185</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.04570550681757469</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994681076709508</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1703579033305842</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1705199965771897</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06075509580830429</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.0593503243371063</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1589007466678299</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1591486563345604</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>0.02693040032882513</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>0.01491482320752718</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.01653795143489441</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.003722383590403506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.05640889601030002</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.00925790540533165</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>-0.01189983091638012</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>0.005597818271078254</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.04575040402855229</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994681076709508</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1704909272262261</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1707747760557495</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.05984209395394349</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.05847529085282454</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1592269988660523</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1595997090554371</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>0.02864793743266875</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>0.01793311764352693</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.01954563716488644</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.03278936311573936</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.3140280797418116</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.07168200158114711</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>-0.02597332325948909</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.03270933565802012</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2916642363652587</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1703579033305842</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1704909272262261</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995851121672263</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01184782763158851</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01174263602175435</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9755006796263915</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9750097612535854</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.06396347741572256</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.06016466044408468</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.06447664510655464</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.02540128292014521</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.3090612858402217</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.06827478245457509</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>-0.02419475923252313</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.02904249741608673</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2964159407580173</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1705199965771897</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1707747760557495</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995851121672263</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01112074786568765</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01095683751581164</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.975038995641107</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9753481225538617</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.06161242807366304</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.05691434380473516</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.06328009357149228</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>-0.003735350969711191</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05859450381016332</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.02261796491765219</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>0.01486390895692113</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.02562385868829739</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.06634785089799124</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>-0.06075509580830429</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>-0.05984209395394349</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01184782763158851</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01112074786568765</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994681076709508</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1703579033305842</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1705199965771897</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>-0.03877769011070512</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.00538273904398145</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.02689131712420073</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>-0.003722383590403506</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05852582736489374</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>-0.02302495600710903</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>0.01436415248094443</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.02519361695958046</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.06617511861877032</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>-0.0593503243371063</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>-0.05847529085282454</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01174263602175435</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01095683751581164</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9994681076709508</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1704909272262261</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1707747760557495</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>-0.03870296067051957</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.005122772232722222</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.026258498221649</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>-0.03278936311573936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2946210104947336</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.07549407346132941</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.02344325036999153</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.02910156922841318</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2955451834838658</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1589007466678299</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1592269988660523</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9755006796263915</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.975038995641107</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1703579033305842</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1704909272262261</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995851121672263</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.07097229407046041</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.05973534503688712</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.06959473550463517</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>-0.02540128292014521</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2896354834237376</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.07196551542872649</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.02142403475620135</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.02544971923671207</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.3002778899582095</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1591486563345604</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1595997090554371</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9750097612535854</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9753481225538617</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1705199965771897</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1707747760557495</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9995851121672263</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.06876269077587636</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.05661221859580103</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.06806585447044124</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.02045792160719828</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.0001356758526699165</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.4516858778425433</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.3074504661719041</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.04188967464141852</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.03902923940692708</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>0.02693040032882513</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>0.02864793743266875</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.06396347741572256</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.06161242807366304</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>-0.03877769011070512</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>-0.03870296067051957</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.07097229407046041</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.06876269077587636</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.6312057873870551</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5357478640189208</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.04614177884777693</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>-0.01426584288474452</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.2808525129013629</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1986019200791354</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.09584526516635961</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.02221007030779636</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>0.01491482320752718</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>0.01793311764352693</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.06016466044408468</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.05691434380473516</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>-0.00538273904398145</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>-0.005122772232722222</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>-0.05973534503688712</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>-0.05661221859580103</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.6312057873870551</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.491476583998519</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>-0.01515684042735803</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>-0.02495011652151665</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.7206752789418399</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>0.3458329224122893</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.06074342288677571</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.01406768922614028</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.01653795143489441</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.01954563716488644</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>-0.06447664510655464</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>-0.06328009357149228</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.02689131712420073</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.026258498221649</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.06959473550463517</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.06806585447044124</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5357478640189208</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.491476583998519</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.5347146181782421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.5632410277852865</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.5681891449413768</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.7801883490249324</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.5258185216313951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001150198025742826</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.001139859307029298</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.01808534008041239</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01714141545075641</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001150198025742826</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.001139859307029298</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.01808534008041239</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01714141545075641</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.04955976940794868</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.1105887555065882</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.00477637652529888</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>-0.5347146181782421</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.4063381152890409</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.4040523081860608</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.5507598568727012</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9096310732387437</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03800178391545817</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03778512987291927</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.2270610850957741</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.2216970612511516</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03911339894465837</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03923454773597552</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.2141822817571005</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.2088008540734643</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.0397730641376382</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.02854414452992238</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.03509317157634956</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>0.5632410277852865</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.4063381152890409</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.7985736930922586</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.6923628411446476</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.3962095385556812</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.005178741546097447</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.006417871771861326</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02486962038557858</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.0239459264085042</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-0.004938281998990602</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>-0.0055564081241252</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.02636812016658832</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.02546083894256227</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4039871427992514</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.00920604051530018</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.3087310615645463</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>0.5681891449413768</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.4040523081860608</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.7985736930922586</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.7294832186873774</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.4078703235853838</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.002390981144605068</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.002601522433753633</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.002807040524819855</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.004007232760154516</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.007910527082508322</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.00779707188543918</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.00361844464136721</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.00496551066548792</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.2279806458503229</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1057572951308436</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.1323409904528291</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>0.7801883490249324</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.5507598568727012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.6923628411446476</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.7294832186873774</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.5575369037533469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.004743192049602894</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.004777741981032938</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.007513309203162778</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.009638193150122366</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.008173728143250293</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.008196814272919404</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.008143462478421211</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.01027898140780322</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>0.01133824265308381</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.09661336620730035</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.03630997961434804</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>-0.5258185216313951</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9096310732387437</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.3962095385556812</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.4078703235853838</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.5575369037533469</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03221822049471655</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03220962288287251</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1980247359907111</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2029256951888213</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03719178317407272</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03707899532097749</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1989825706579974</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.203877094519041</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.02105055074964112</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.06430347115091854</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.004853996421423758</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001150198025742826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.03800178391545817</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.005178741546097447</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>-0.002390981144605068</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>0.004743192049602894</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.03221822049471655</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9987616190737453</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1670148513008241</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1672393802262041</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.04328538153264702</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.0429095694742888</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1603752495466333</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1604463463218287</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>0.01134055899199518</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.004510814805581685</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.03700784847074713</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.001139859307029298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.03778512987291927</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.006417871771861326</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>-0.002601522433753633</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>0.004777741981032938</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.03220962288287251</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9987616190737453</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1664080076976353</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1670214913278454</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.04356224736195938</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.04329967359105909</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1596932135822225</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1601338533892181</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>0.01369791426747469</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.005998272266071359</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.03280455081967072</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.01808534008041239</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.2270610850957741</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.02486962038557858</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>0.002807040524819855</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>0.007513309203162778</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1980247359907111</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1670148513008241</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1664080076976353</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9988328559421324</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.006441489512581199</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.00692550636697671</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9716251236485718</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9704099034479067</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.04449677399373293</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.08387761777656413</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.0941835115790772</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01714141545075641</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.2216970612511516</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.0239459264085042</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>0.004007232760154516</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>0.009638193150122366</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.2029256951888213</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1672393802262041</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1670214913278454</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9988328559421324</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.006882290853056465</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.007393179514252638</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.970530766759289</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9715753636851111</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.04482660504484779</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.08308838600003315</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.09397931442752261</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>0.001150198025742826</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.03911339894465837</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>-0.004938281998990602</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>0.007910527082508322</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>0.008173728143250293</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.03719178317407272</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>-0.04328538153264702</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>-0.04356224736195938</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>-0.006441489512581199</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>-0.006882290853056465</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9987616190737453</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1670148513008241</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1672393802262041</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.01953523845134519</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.01334500812799392</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.00560174178916627</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>0.001139859307029298</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.03923454773597552</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>-0.0055564081241252</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>0.00779707188543918</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>0.008196814272919404</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.03707899532097749</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>-0.0429095694742888</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>-0.04329967359105909</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>-0.00692550636697671</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>-0.007393179514252638</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9987616190737453</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1664080076976353</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1670214913278454</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.02038886181764517</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.013455231408223</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.00535581398114191</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.01808534008041239</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.2141822817571005</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.02636812016658832</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>0.00361844464136721</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>0.008143462478421211</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1989825706579974</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1603752495466333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1596932135822225</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9716251236485718</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.970530766759289</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1670148513008241</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1664080076976353</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9988328559421324</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.04792962044180106</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.07838102661854188</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.09280640993440994</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.01714141545075641</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.2088008540734643</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.02546083894256227</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>0.00496551066548792</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>0.01027898140780322</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.203877094519041</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1604463463218287</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1601338533892181</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.9704099034479067</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9715753636851111</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1672393802262041</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1670214913278454</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9988328559421324</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.04851835054375971</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.07786119309014129</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.09247794955566242</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.04955976940794868</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>-0.0397730641376382</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.4039871427992514</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.2279806458503229</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>0.01133824265308381</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>-0.02105055074964112</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>0.01134055899199518</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>0.01369791426747469</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>-0.04449677399373293</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>-0.04482660504484779</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>-0.01953523845134519</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>-0.02038886181764517</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>-0.04792962044180106</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>-0.04851835054375971</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.1754498407175467</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.2982901694523482</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.1105887555065882</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>0.02854414452992238</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.00920604051530018</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1057572951308436</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>-0.09661336620730035</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>0.06430347115091854</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.004510814805581685</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.005998272266071359</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>-0.08387761777656413</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>-0.08308838600003315</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.01334500812799392</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.013455231408223</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>-0.07838102661854188</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>-0.07786119309014129</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.1754498407175467</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3177430717405004</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.00477637652529888</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>-0.03509317157634956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.3087310615645463</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.1323409904528291</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.03630997961434804</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.004853996421423758</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>-0.03700784847074713</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>-0.03280455081967072</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.0941835115790772</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.09397931442752261</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>0.00560174178916627</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>0.00535581398114191</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.09280640993440994</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.09247794955566242</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.2982901694523482</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3177430717405004</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
